--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Arf1-Chrm3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H2">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I2">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J2">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1741896666666667</v>
+        <v>0.09777333333333334</v>
       </c>
       <c r="N2">
-        <v>0.5225690000000001</v>
+        <v>0.29332</v>
       </c>
       <c r="O2">
-        <v>0.1217775023807563</v>
+        <v>0.3178747086843887</v>
       </c>
       <c r="P2">
-        <v>0.1456106214565214</v>
+        <v>0.3620126183588235</v>
       </c>
       <c r="Q2">
-        <v>8.781047822429224</v>
+        <v>4.331515234364445</v>
       </c>
       <c r="R2">
-        <v>79.02943040186301</v>
+        <v>38.98363710928</v>
       </c>
       <c r="S2">
-        <v>0.01867850624663186</v>
+        <v>0.04167279406009484</v>
       </c>
       <c r="T2">
-        <v>0.02366657407332661</v>
+        <v>0.05053345969470988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H3">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I3">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J3">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.123629</v>
       </c>
       <c r="O3">
-        <v>0.02881003435303379</v>
+        <v>0.1339783593343184</v>
       </c>
       <c r="P3">
-        <v>0.03444845660582293</v>
+        <v>0.1525816786959054</v>
       </c>
       <c r="Q3">
-        <v>2.077414008942556</v>
+        <v>1.825654223746222</v>
       </c>
       <c r="R3">
-        <v>18.696726080483</v>
+        <v>16.430888013716</v>
       </c>
       <c r="S3">
-        <v>0.004418947639000495</v>
+        <v>0.0175643183446593</v>
       </c>
       <c r="T3">
-        <v>0.005599021155314025</v>
+        <v>0.02129892638959937</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H4">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I4">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J4">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.01851933333333334</v>
+        <v>0.025476</v>
       </c>
       <c r="N4">
-        <v>0.055558</v>
+        <v>0.076428</v>
       </c>
       <c r="O4">
-        <v>0.01294702609085127</v>
+        <v>0.08282602016681595</v>
       </c>
       <c r="P4">
-        <v>0.01548089325406103</v>
+        <v>0.09432667528954096</v>
       </c>
       <c r="Q4">
-        <v>0.9335751927851113</v>
+        <v>1.128627595568</v>
       </c>
       <c r="R4">
-        <v>8.402176735066</v>
+        <v>10.157648360112</v>
       </c>
       <c r="S4">
-        <v>0.001985843879086538</v>
+        <v>0.01085834005326922</v>
       </c>
       <c r="T4">
-        <v>0.002516160588105838</v>
+        <v>0.01316709142761246</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H5">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I5">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J5">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7023675</v>
+        <v>0.1125055</v>
       </c>
       <c r="N5">
-        <v>1.404735</v>
+        <v>0.225011</v>
       </c>
       <c r="O5">
-        <v>0.4910311934122526</v>
+        <v>0.3657710320253459</v>
       </c>
       <c r="P5">
-        <v>0.3914207240225245</v>
+        <v>0.2777063318885082</v>
       </c>
       <c r="Q5">
-        <v>35.4069373025575</v>
+        <v>4.984173808807333</v>
       </c>
       <c r="R5">
-        <v>212.441623815345</v>
+        <v>29.905042852844</v>
       </c>
       <c r="S5">
-        <v>0.07531546495973471</v>
+        <v>0.04795191462015547</v>
       </c>
       <c r="T5">
-        <v>0.06361889995559333</v>
+        <v>0.03876511761682246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.41084233333333</v>
+        <v>44.30160133333333</v>
       </c>
       <c r="H6">
-        <v>151.232527</v>
+        <v>132.904804</v>
       </c>
       <c r="I6">
-        <v>0.1533822412306553</v>
+        <v>0.1310981746002036</v>
       </c>
       <c r="J6">
-        <v>0.1625332948695183</v>
+        <v>0.1395903267786693</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.4941066666666666</v>
+        <v>0.03062</v>
       </c>
       <c r="N6">
-        <v>1.48232</v>
+        <v>0.09186</v>
       </c>
       <c r="O6">
-        <v>0.3454342437631061</v>
+        <v>0.09954987978913112</v>
       </c>
       <c r="P6">
-        <v>0.4130393046610702</v>
+        <v>0.1133726957672219</v>
       </c>
       <c r="Q6">
-        <v>24.90833326918222</v>
+        <v>1.356515032826666</v>
       </c>
       <c r="R6">
-        <v>224.17499942264</v>
+        <v>12.20863529544</v>
       </c>
       <c r="S6">
-        <v>0.05298347850620174</v>
+        <v>0.01305080752202479</v>
       </c>
       <c r="T6">
-        <v>0.06713263909717854</v>
+        <v>0.01582573164992516</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>217.197876</v>
       </c>
       <c r="I7">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J7">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1741896666666667</v>
+        <v>0.09777333333333334</v>
       </c>
       <c r="N7">
-        <v>0.5225690000000001</v>
+        <v>0.29332</v>
       </c>
       <c r="O7">
-        <v>0.1217775023807563</v>
+        <v>0.3178747086843887</v>
       </c>
       <c r="P7">
-        <v>0.1456106214565214</v>
+        <v>0.3620126183588235</v>
       </c>
       <c r="Q7">
-        <v>12.61120854038267</v>
+        <v>7.078720109813334</v>
       </c>
       <c r="R7">
-        <v>113.500876863444</v>
+        <v>63.70848098832001</v>
       </c>
       <c r="S7">
-        <v>0.02682578916122437</v>
+        <v>0.06810319931579009</v>
       </c>
       <c r="T7">
-        <v>0.03398957699703854</v>
+        <v>0.08258362212868241</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>217.197876</v>
       </c>
       <c r="I8">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J8">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>0.123629</v>
       </c>
       <c r="O8">
-        <v>0.02881003435303379</v>
+        <v>0.1339783593343184</v>
       </c>
       <c r="P8">
-        <v>0.03444845660582293</v>
+        <v>0.1525816786959054</v>
       </c>
       <c r="Q8">
         <v>2.983550690222667</v>
@@ -948,10 +948,10 @@
         <v>26.851956212004</v>
       </c>
       <c r="S8">
-        <v>0.006346425999653648</v>
+        <v>0.02870424938023937</v>
       </c>
       <c r="T8">
-        <v>0.00804122979848953</v>
+        <v>0.03480748199968252</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>217.197876</v>
       </c>
       <c r="I9">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J9">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01851933333333334</v>
+        <v>0.025476</v>
       </c>
       <c r="N9">
-        <v>0.055558</v>
+        <v>0.076428</v>
       </c>
       <c r="O9">
-        <v>0.01294702609085127</v>
+        <v>0.08282602016681595</v>
       </c>
       <c r="P9">
-        <v>0.01548089325406103</v>
+        <v>0.09432667528954096</v>
       </c>
       <c r="Q9">
-        <v>1.340786621645333</v>
+        <v>1.844444362992</v>
       </c>
       <c r="R9">
-        <v>12.067079594808</v>
+        <v>16.599999266928</v>
       </c>
       <c r="S9">
-        <v>0.002852039049808358</v>
+        <v>0.01774509517696442</v>
       </c>
       <c r="T9">
-        <v>0.003613671914716462</v>
+        <v>0.02151814084293924</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>217.197876</v>
       </c>
       <c r="I10">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J10">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7023675</v>
+        <v>0.1125055</v>
       </c>
       <c r="N10">
-        <v>1.404735</v>
+        <v>0.225011</v>
       </c>
       <c r="O10">
-        <v>0.4910311934122526</v>
+        <v>0.3657710320253459</v>
       </c>
       <c r="P10">
-        <v>0.3914207240225245</v>
+        <v>0.2777063318885082</v>
       </c>
       <c r="Q10">
-        <v>50.85090972381001</v>
+        <v>8.145318546106001</v>
       </c>
       <c r="R10">
-        <v>305.10545834286</v>
+        <v>48.87191127663601</v>
       </c>
       <c r="S10">
-        <v>0.1081669356699092</v>
+        <v>0.0783647670525974</v>
       </c>
       <c r="T10">
-        <v>0.09136850529391317</v>
+        <v>0.06335136846719266</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>217.197876</v>
       </c>
       <c r="I11">
-        <v>0.2202852631789851</v>
+        <v>0.2142454163706631</v>
       </c>
       <c r="J11">
-        <v>0.2334278684964451</v>
+        <v>0.2281236010586413</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.4941066666666666</v>
+        <v>0.03062</v>
       </c>
       <c r="N11">
-        <v>1.48232</v>
+        <v>0.09186</v>
       </c>
       <c r="O11">
-        <v>0.3454342437631061</v>
+        <v>0.09954987978913112</v>
       </c>
       <c r="P11">
-        <v>0.4130393046610702</v>
+        <v>0.1133726957672219</v>
       </c>
       <c r="Q11">
-        <v>35.77297283914667</v>
+        <v>2.21686632104</v>
       </c>
       <c r="R11">
-        <v>321.95675555232</v>
+        <v>19.95179688936</v>
       </c>
       <c r="S11">
-        <v>0.07609407329838951</v>
+        <v>0.02132810544507186</v>
       </c>
       <c r="T11">
-        <v>0.09641488449228743</v>
+        <v>0.02586298762014443</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H12">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I12">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J12">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1741896666666667</v>
+        <v>0.09777333333333334</v>
       </c>
       <c r="N12">
-        <v>0.5225690000000001</v>
+        <v>0.29332</v>
       </c>
       <c r="O12">
-        <v>0.1217775023807563</v>
+        <v>0.3178747086843887</v>
       </c>
       <c r="P12">
-        <v>0.1456106214565214</v>
+        <v>0.3620126183588235</v>
       </c>
       <c r="Q12">
-        <v>11.043090626959</v>
+        <v>8.051805168515555</v>
       </c>
       <c r="R12">
-        <v>99.38781564263103</v>
+        <v>72.46624651664</v>
       </c>
       <c r="S12">
-        <v>0.02349018493338675</v>
+        <v>0.07746509026160435</v>
       </c>
       <c r="T12">
-        <v>0.02976320452939779</v>
+        <v>0.09393608239554979</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H13">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I13">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J13">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.123629</v>
       </c>
       <c r="O13">
-        <v>0.02881003435303379</v>
+        <v>0.1339783593343184</v>
       </c>
       <c r="P13">
-        <v>0.03444845660582293</v>
+        <v>0.1525816786959054</v>
       </c>
       <c r="Q13">
-        <v>2.612566476619</v>
+        <v>3.393688194389777</v>
       </c>
       <c r="R13">
-        <v>23.513098289571</v>
+        <v>30.543193749508</v>
       </c>
       <c r="S13">
-        <v>0.005557291138834623</v>
+        <v>0.03265011470050417</v>
       </c>
       <c r="T13">
-        <v>0.007041357625050315</v>
+        <v>0.03959233577826068</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H14">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I14">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J14">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.01851933333333334</v>
+        <v>0.025476</v>
       </c>
       <c r="N14">
-        <v>0.055558</v>
+        <v>0.076428</v>
       </c>
       <c r="O14">
-        <v>0.01294702609085127</v>
+        <v>0.08282602016681595</v>
       </c>
       <c r="P14">
-        <v>0.01548089325406103</v>
+        <v>0.09432667528954096</v>
       </c>
       <c r="Q14">
-        <v>1.174068934538</v>
+        <v>2.097993199984</v>
       </c>
       <c r="R14">
-        <v>10.566620410842</v>
+        <v>18.881938799856</v>
       </c>
       <c r="S14">
-        <v>0.002497407413239402</v>
+        <v>0.02018444674251295</v>
       </c>
       <c r="T14">
-        <v>0.003164336417285148</v>
+        <v>0.02447615882083417</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H15">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I15">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J15">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.7023675</v>
+        <v>0.1125055</v>
       </c>
       <c r="N15">
-        <v>1.404735</v>
+        <v>0.225011</v>
       </c>
       <c r="O15">
-        <v>0.4910311934122526</v>
+        <v>0.3657710320253459</v>
       </c>
       <c r="P15">
-        <v>0.3914207240225245</v>
+        <v>0.2777063318885082</v>
       </c>
       <c r="Q15">
-        <v>44.52794533887751</v>
+        <v>9.265024884628666</v>
       </c>
       <c r="R15">
-        <v>267.167672033265</v>
+        <v>55.590149307772</v>
       </c>
       <c r="S15">
-        <v>0.09471711371819137</v>
+        <v>0.08913727716241915</v>
       </c>
       <c r="T15">
-        <v>0.08000745378046459</v>
+        <v>0.07206004307890718</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>63.39693300000001</v>
+        <v>82.35175066666666</v>
       </c>
       <c r="H16">
-        <v>190.190799</v>
+        <v>247.055252</v>
       </c>
       <c r="I16">
-        <v>0.192894290605017</v>
+        <v>0.2436969288378267</v>
       </c>
       <c r="J16">
-        <v>0.2044027024380562</v>
+        <v>0.2594828954344383</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.4941066666666666</v>
+        <v>0.03062</v>
       </c>
       <c r="N16">
-        <v>1.48232</v>
+        <v>0.09186</v>
       </c>
       <c r="O16">
-        <v>0.3454342437631061</v>
+        <v>0.09954987978913112</v>
       </c>
       <c r="P16">
-        <v>0.4130393046610702</v>
+        <v>0.1133726957672219</v>
       </c>
       <c r="Q16">
-        <v>31.32484724152</v>
+        <v>2.521610605413333</v>
       </c>
       <c r="R16">
-        <v>281.92362517368</v>
+        <v>22.69449544872</v>
       </c>
       <c r="S16">
-        <v>0.06663229340136488</v>
+        <v>0.02425999997078608</v>
       </c>
       <c r="T16">
-        <v>0.08442635008585837</v>
+        <v>0.02941827536088642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H17">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I17">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J17">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1741896666666667</v>
+        <v>0.09777333333333334</v>
       </c>
       <c r="N17">
-        <v>0.5225690000000001</v>
+        <v>0.29332</v>
       </c>
       <c r="O17">
-        <v>0.1217775023807563</v>
+        <v>0.3178747086843887</v>
       </c>
       <c r="P17">
-        <v>0.1456106214565214</v>
+        <v>0.3620126183588235</v>
       </c>
       <c r="Q17">
-        <v>9.669884331328001</v>
+        <v>6.03013313058</v>
       </c>
       <c r="R17">
-        <v>58.01930598796801</v>
+        <v>36.18079878348</v>
       </c>
       <c r="S17">
-        <v>0.02056918474189001</v>
+        <v>0.05801491683833061</v>
       </c>
       <c r="T17">
-        <v>0.01737477033384867</v>
+        <v>0.04690021436230129</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H18">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I18">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J18">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>0.123629</v>
       </c>
       <c r="O18">
-        <v>0.02881003435303379</v>
+        <v>0.1339783593343184</v>
       </c>
       <c r="P18">
-        <v>0.03444845660582293</v>
+        <v>0.1525816786959054</v>
       </c>
       <c r="Q18">
-        <v>2.287694314048</v>
+        <v>2.5415905113885</v>
       </c>
       <c r="R18">
-        <v>13.726165884288</v>
+        <v>15.249543068331</v>
       </c>
       <c r="S18">
-        <v>0.004866243004187235</v>
+        <v>0.02445222335267276</v>
       </c>
       <c r="T18">
-        <v>0.004110510729881367</v>
+        <v>0.01976758012204059</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H19">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I19">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J19">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.01851933333333334</v>
+        <v>0.025476</v>
       </c>
       <c r="N19">
-        <v>0.055558</v>
+        <v>0.076428</v>
       </c>
       <c r="O19">
-        <v>0.01294702609085127</v>
+        <v>0.08282602016681595</v>
       </c>
       <c r="P19">
-        <v>0.01548089325406103</v>
+        <v>0.09432667528954096</v>
       </c>
       <c r="Q19">
-        <v>1.028073677696</v>
+        <v>1.571222606382</v>
       </c>
       <c r="R19">
-        <v>6.168442066176</v>
+        <v>9.427335638292</v>
       </c>
       <c r="S19">
-        <v>0.002186855259094827</v>
+        <v>0.01511647369466771</v>
       </c>
       <c r="T19">
-        <v>0.001847234509142264</v>
+        <v>0.01222040632511238</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H20">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I20">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J20">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.7023675</v>
+        <v>0.1125055</v>
       </c>
       <c r="N20">
-        <v>1.404735</v>
+        <v>0.225011</v>
       </c>
       <c r="O20">
-        <v>0.4910311934122526</v>
+        <v>0.3657710320253459</v>
       </c>
       <c r="P20">
-        <v>0.3914207240225245</v>
+        <v>0.2777063318885082</v>
       </c>
       <c r="Q20">
-        <v>38.99090349648</v>
+        <v>6.93873390415725</v>
       </c>
       <c r="R20">
-        <v>155.96361398592</v>
+        <v>27.754935616629</v>
       </c>
       <c r="S20">
-        <v>0.08293905798583207</v>
+        <v>0.06675641510658807</v>
       </c>
       <c r="T20">
-        <v>0.04670569437704666</v>
+        <v>0.03597799036504764</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.513536</v>
+        <v>61.6746195</v>
       </c>
       <c r="H21">
-        <v>111.027072</v>
+        <v>123.349239</v>
       </c>
       <c r="I21">
-        <v>0.1689079209193933</v>
+        <v>0.1825087534596294</v>
       </c>
       <c r="J21">
-        <v>0.1193235092334022</v>
+        <v>0.1295540872992837</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.4941066666666666</v>
+        <v>0.03062</v>
       </c>
       <c r="N21">
-        <v>1.48232</v>
+        <v>0.09186</v>
       </c>
       <c r="O21">
-        <v>0.3454342437631061</v>
+        <v>0.09954987978913112</v>
       </c>
       <c r="P21">
-        <v>0.4130393046610702</v>
+        <v>0.1133726957672219</v>
       </c>
       <c r="Q21">
-        <v>27.42960822784</v>
+        <v>1.88847684909</v>
       </c>
       <c r="R21">
-        <v>164.57764936704</v>
+        <v>11.33086109454</v>
       </c>
       <c r="S21">
-        <v>0.05834657992838915</v>
+        <v>0.01816872446737028</v>
       </c>
       <c r="T21">
-        <v>0.04928529928348323</v>
+        <v>0.01468789612478179</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H22">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I22">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J22">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.1741896666666667</v>
+        <v>0.09777333333333334</v>
       </c>
       <c r="N22">
-        <v>0.5225690000000001</v>
+        <v>0.29332</v>
       </c>
       <c r="O22">
-        <v>0.1217775023807563</v>
+        <v>0.3178747086843887</v>
       </c>
       <c r="P22">
-        <v>0.1456106214565214</v>
+        <v>0.3620126183588235</v>
       </c>
       <c r="Q22">
-        <v>15.14421132607389</v>
+        <v>7.548066982302222</v>
       </c>
       <c r="R22">
-        <v>136.297901934665</v>
+        <v>67.93260284071999</v>
       </c>
       <c r="S22">
-        <v>0.03221383729762327</v>
+        <v>0.07261870820856879</v>
       </c>
       <c r="T22">
-        <v>0.04081649552290984</v>
+        <v>0.08805923977758014</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H23">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I23">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J23">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>0.123629</v>
       </c>
       <c r="O23">
-        <v>0.02881003435303379</v>
+        <v>0.1339783593343184</v>
       </c>
       <c r="P23">
-        <v>0.03444845660582293</v>
+        <v>0.1525816786959054</v>
       </c>
       <c r="Q23">
-        <v>3.582806676307222</v>
+        <v>3.181371788337111</v>
       </c>
       <c r="R23">
-        <v>32.245260086765</v>
+        <v>28.632346095034</v>
       </c>
       <c r="S23">
-        <v>0.007621126571357786</v>
+        <v>0.03060745355624284</v>
       </c>
       <c r="T23">
-        <v>0.009656337297087694</v>
+        <v>0.03711535440632229</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H24">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I24">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J24">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,28 +1922,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.01851933333333334</v>
+        <v>0.025476</v>
       </c>
       <c r="N24">
-        <v>0.055558</v>
+        <v>0.076428</v>
       </c>
       <c r="O24">
-        <v>0.01294702609085127</v>
+        <v>0.08282602016681595</v>
       </c>
       <c r="P24">
-        <v>0.01548089325406103</v>
+        <v>0.09432667528954096</v>
       </c>
       <c r="Q24">
-        <v>1.610088032114445</v>
+        <v>1.966738249432</v>
       </c>
       <c r="R24">
-        <v>14.49079228903</v>
+        <v>17.700644244888</v>
       </c>
       <c r="S24">
-        <v>0.003424880489622143</v>
+        <v>0.01892166449940166</v>
       </c>
       <c r="T24">
-        <v>0.004339489824811316</v>
+        <v>0.02294487787304273</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H25">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I25">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J25">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.7023675</v>
+        <v>0.1125055</v>
       </c>
       <c r="N25">
-        <v>1.404735</v>
+        <v>0.225011</v>
       </c>
       <c r="O25">
-        <v>0.4910311934122526</v>
+        <v>0.3657710320253459</v>
       </c>
       <c r="P25">
-        <v>0.3914207240225245</v>
+        <v>0.2777063318885082</v>
       </c>
       <c r="Q25">
-        <v>61.0644824811625</v>
+        <v>8.685385073067666</v>
       </c>
       <c r="R25">
-        <v>366.386894886975</v>
+        <v>52.112310438406</v>
       </c>
       <c r="S25">
-        <v>0.1298926210785853</v>
+        <v>0.08356065808358588</v>
       </c>
       <c r="T25">
-        <v>0.1097201706155067</v>
+        <v>0.06755181236053825</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>86.94092833333333</v>
+        <v>77.19964866666666</v>
       </c>
       <c r="H26">
-        <v>260.822785</v>
+        <v>231.598946</v>
       </c>
       <c r="I26">
-        <v>0.2645302840659493</v>
+        <v>0.2284507267316773</v>
       </c>
       <c r="J26">
-        <v>0.2803126249625782</v>
+        <v>0.2432490894289675</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>0.4941066666666666</v>
+        <v>0.03062</v>
       </c>
       <c r="N26">
-        <v>1.48232</v>
+        <v>0.09186</v>
       </c>
       <c r="O26">
-        <v>0.3454342437631061</v>
+        <v>0.09954987978913112</v>
       </c>
       <c r="P26">
-        <v>0.4130393046610702</v>
+        <v>0.1133726957672219</v>
       </c>
       <c r="Q26">
-        <v>42.95809229568889</v>
+        <v>2.363853242173333</v>
       </c>
       <c r="R26">
-        <v>386.6228306612</v>
+        <v>21.27467917956</v>
       </c>
       <c r="S26">
-        <v>0.09137781862876083</v>
+        <v>0.02274224238387811</v>
       </c>
       <c r="T26">
-        <v>0.1157801317022627</v>
+        <v>0.02757780501148408</v>
       </c>
     </row>
   </sheetData>
